--- a/Test Files/raffle-test-data-small.xlsx
+++ b/Test Files/raffle-test-data-small.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Coding Projects\Raffle Page\Summer Gun raffle-page\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vom3-2/Documents/Coding Projects/JS/excel-scroll-winner/Test Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22E93A6E-8DE4-4758-A35D-E32F8A16D03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D1FFD4-E940-2A47-9EAB-F7986105E5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{869E327E-0597-49B6-93AA-392FB07B36E0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{869E327E-0597-49B6-93AA-392FB07B36E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
   <si>
     <t xml:space="preserve">Ben </t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>McDonald</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Ticket</t>
   </si>
 </sst>
 </file>
@@ -124,9 +133,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -164,7 +173,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -270,7 +279,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -412,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,341 +429,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02D84BE-A8D6-4678-8DE9-29906AAD0543}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>7</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>8</v>
       </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>1101021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
         <v>1101021</v>
       </c>
     </row>
@@ -764,6 +782,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCED1BDE83DA8B4DB8F8ABBEF203CAA8" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f6337449571e318062ebe8bb2d569c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b94d919-4f57-4d06-b58c-d7b27c8dab04" xmlns:ns4="f21621c4-57d5-4cdf-80b5-06d6a184f0c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="756535abd00c106b398a981883d9e6da" ns3:_="" ns4:_="">
     <xsd:import namespace="4b94d919-4f57-4d06-b58c-d7b27c8dab04"/>
@@ -990,15 +1017,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1008,6 +1026,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B5A0F7-783C-4858-B0E3-9275CA8BE5B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{637BCBDC-C005-477F-A786-DCBBFD4FE0B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1022,14 +1048,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B5A0F7-783C-4858-B0E3-9275CA8BE5B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Test Files/raffle-test-data-small.xlsx
+++ b/Test Files/raffle-test-data-small.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vom3-2/Documents/Coding Projects/JS/excel-scroll-winner/Test Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D1FFD4-E940-2A47-9EAB-F7986105E5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96417BB-D91B-1243-8808-9366A971728C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{869E327E-0597-49B6-93AA-392FB07B36E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="13">
   <si>
     <t xml:space="preserve">Ben </t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>LastName</t>
-  </si>
-  <si>
-    <t>Ticket</t>
   </si>
 </sst>
 </file>
@@ -429,351 +426,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02D84BE-A8D6-4678-8DE9-29906AAD0543}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C17">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C26">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C28">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C29">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="C30">
-        <v>1101021</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
-      </c>
-      <c r="C31">
-        <v>1101021</v>
       </c>
     </row>
   </sheetData>
@@ -782,15 +688,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCED1BDE83DA8B4DB8F8ABBEF203CAA8" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f6337449571e318062ebe8bb2d569c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b94d919-4f57-4d06-b58c-d7b27c8dab04" xmlns:ns4="f21621c4-57d5-4cdf-80b5-06d6a184f0c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="756535abd00c106b398a981883d9e6da" ns3:_="" ns4:_="">
     <xsd:import namespace="4b94d919-4f57-4d06-b58c-d7b27c8dab04"/>
@@ -1017,6 +914,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1026,14 +932,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B5A0F7-783C-4858-B0E3-9275CA8BE5B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{637BCBDC-C005-477F-A786-DCBBFD4FE0B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1052,6 +950,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B5A0F7-783C-4858-B0E3-9275CA8BE5B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BC1FB7D-B880-478D-B5E2-3979433D4C00}">
   <ds:schemaRefs>
